--- a/Institut Curie/table2_age_excel.xlsx
+++ b/Institut Curie/table2_age_excel.xlsx
@@ -429,17 +429,17 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>374 (27.7)</t>
+          <t>374 (28)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>271 (33.9)</t>
+          <t>271 (34)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>101 (18.4)</t>
+          <t>101 (18)</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -456,17 +456,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>276 (20.4)</t>
+          <t>276 (20)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>175 (21.9)</t>
+          <t>175 (22)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>101 (18.4)</t>
+          <t>101 (18)</t>
         </is>
       </c>
     </row>
@@ -478,17 +478,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>701 (51.9)</t>
+          <t>701 (52)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>353 (44.2)</t>
+          <t>353 (44)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>348 (63.3)</t>
+          <t>348 (63)</t>
         </is>
       </c>
     </row>
@@ -505,17 +505,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>78 (6.3)</t>
+          <t>78 (6)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>51 (6.9)</t>
+          <t>51 (7)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>27 (5.4)</t>
+          <t>27 (5)</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -532,17 +532,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>809 (64.9)</t>
+          <t>809 (65)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>493 (66.3)</t>
+          <t>493 (66)</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>315 (62.9)</t>
+          <t>315 (63)</t>
         </is>
       </c>
     </row>
@@ -554,17 +554,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>254 (20.4)</t>
+          <t>254 (20)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>141 (19.0)</t>
+          <t>141 (19)</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>112 (22.4)</t>
+          <t>112 (22)</t>
         </is>
       </c>
     </row>
@@ -576,17 +576,17 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>106 (8.5)</t>
+          <t>106 (9)</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>59 (7.9)</t>
+          <t>59 (8)</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>47 (9.4)</t>
+          <t>47 (9)</t>
         </is>
       </c>
     </row>
@@ -635,17 +635,17 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>813 (60.2)</t>
+          <t>813 (60)</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>483 (60.5)</t>
+          <t>483 (60)</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>329 (59.8)</t>
+          <t>329 (60)</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -662,17 +662,17 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>537 (39.8)</t>
+          <t>537 (40)</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>316 (39.5)</t>
+          <t>316 (40)</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>221 (40.2)</t>
+          <t>221 (40)</t>
         </is>
       </c>
     </row>
@@ -689,17 +689,17 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>651 (48.2)</t>
+          <t>651 (48)</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>264 (33.0)</t>
+          <t>264 (33)</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>386 (70.2)</t>
+          <t>386 (70)</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -716,17 +716,17 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>700 (51.8)</t>
+          <t>700 (52)</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>535 (67.0)</t>
+          <t>535 (67)</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>164 (29.8)</t>
+          <t>164 (30)</t>
         </is>
       </c>
     </row>
@@ -743,17 +743,17 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>543 (79.3)</t>
+          <t>543 (79)</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>409 (78.1)</t>
+          <t>409 (78)</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>133 (83.1)</t>
+          <t>133 (83)</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -770,17 +770,17 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>142 (20.7)</t>
+          <t>142 (21)</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>115 (21.9)</t>
+          <t>115 (22)</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>27 (16.9)</t>
+          <t>27 (17)</t>
         </is>
       </c>
     </row>
@@ -797,17 +797,17 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>1332 (98.7)</t>
+          <t>1332 (99)</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>786 (98.4)</t>
+          <t>786 (98)</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>545 (99.1)</t>
+          <t>545 (99)</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -824,17 +824,17 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>18 (1.3)</t>
+          <t>18 (1)</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>13 (1.6)</t>
+          <t>13 (2)</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>5 (0.9)</t>
+          <t>5 (1)</t>
         </is>
       </c>
     </row>
@@ -878,17 +878,17 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>588 (43.8)</t>
+          <t>588 (44)</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>305 (38.5)</t>
+          <t>305 (38)</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>282 (51.5)</t>
+          <t>282 (51)</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -905,17 +905,17 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>589 (43.9)</t>
+          <t>589 (44)</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>381 (48.0)</t>
+          <t>381 (48)</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>208 (38.0)</t>
+          <t>208 (38)</t>
         </is>
       </c>
     </row>
@@ -927,17 +927,17 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>165 (12.3)</t>
+          <t>165 (12)</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>107 (13.5)</t>
+          <t>107 (13)</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>58 (10.6)</t>
+          <t>58 (11)</t>
         </is>
       </c>
     </row>
@@ -954,17 +954,17 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>853 (63.6)</t>
+          <t>853 (64)</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>494 (62.3)</t>
+          <t>494 (62)</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>358 (65.3)</t>
+          <t>358 (65)</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -981,17 +981,17 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>489 (36.4)</t>
+          <t>489 (36)</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>299 (37.7)</t>
+          <t>299 (38)</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>190 (34.7)</t>
+          <t>190 (35)</t>
         </is>
       </c>
     </row>
@@ -1008,17 +1008,17 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>58 (4.3)</t>
+          <t>58 (4)</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>27 (3.4)</t>
+          <t>27 (3)</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>31 (5.7)</t>
+          <t>31 (6)</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1035,17 +1035,17 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>524 (39.1)</t>
+          <t>524 (39)</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>277 (35.0)</t>
+          <t>277 (35)</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>247 (45.1)</t>
+          <t>247 (45)</t>
         </is>
       </c>
     </row>
@@ -1057,17 +1057,17 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>758 (56.6)</t>
+          <t>758 (57)</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>487 (61.6)</t>
+          <t>487 (62)</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>270 (49.3)</t>
+          <t>270 (49)</t>
         </is>
       </c>
     </row>
@@ -1084,17 +1084,17 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>703 (57.6)</t>
+          <t>703 (58)</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>383 (53.4)</t>
+          <t>383 (53)</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>319 (63.5)</t>
+          <t>319 (64)</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1111,17 +1111,17 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>242 (19.8)</t>
+          <t>242 (20)</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>163 (22.7)</t>
+          <t>163 (23)</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>78 (15.5)</t>
+          <t>78 (16)</t>
         </is>
       </c>
     </row>
@@ -1133,17 +1133,17 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>195 (16.0)</t>
+          <t>195 (16)</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>122 (17.0)</t>
+          <t>122 (17)</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>73 (14.5)</t>
+          <t>73 (15)</t>
         </is>
       </c>
     </row>
@@ -1155,17 +1155,17 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>81 (6.6)</t>
+          <t>81 (7)</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>49 (6.8)</t>
+          <t>49 (7)</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>32 (6.4)</t>
+          <t>32 (6)</t>
         </is>
       </c>
     </row>
@@ -1182,17 +1182,17 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>1259 (93.3)</t>
+          <t>1259 (93)</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>760 (95.1)</t>
+          <t>760 (95)</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>498 (90.7)</t>
+          <t>498 (91)</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -1209,17 +1209,17 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>53 (3.9)</t>
+          <t>53 (4)</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>18 (2.3)</t>
+          <t>18 (2)</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>35 (6.4)</t>
+          <t>35 (6)</t>
         </is>
       </c>
     </row>
@@ -1231,17 +1231,17 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>37 (2.7)</t>
+          <t>37 (3)</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>21 (2.6)</t>
+          <t>21 (3)</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>16 (2.9)</t>
+          <t>16 (3)</t>
         </is>
       </c>
     </row>
@@ -1258,17 +1258,17 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>740 (54.8)</t>
+          <t>740 (55)</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>379 (47.4)</t>
+          <t>379 (47)</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>360 (65.5)</t>
+          <t>360 (65)</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -1285,17 +1285,17 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>610 (45.2)</t>
+          <t>610 (45)</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>420 (52.6)</t>
+          <t>420 (53)</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>190 (34.5)</t>
+          <t>190 (35)</t>
         </is>
       </c>
     </row>
@@ -1312,17 +1312,17 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>740 (54.9)</t>
+          <t>740 (55)</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>379 (47.5)</t>
+          <t>379 (47)</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>360 (65.5)</t>
+          <t>360 (65)</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -1339,17 +1339,17 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>609 (45.1)</t>
+          <t>609 (45)</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>419 (52.5)</t>
+          <t>419 (53)</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>190 (34.5)</t>
+          <t>190 (35)</t>
         </is>
       </c>
     </row>
@@ -1366,17 +1366,17 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>900 (66.7)</t>
+          <t>900 (67)</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>388 (48.6)</t>
+          <t>388 (49)</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>511 (92.9)</t>
+          <t>511 (93)</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -1393,17 +1393,17 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>450 (33.3)</t>
+          <t>450 (33)</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>411 (51.4)</t>
+          <t>411 (51)</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>39 (7.1)</t>
+          <t>39 (7)</t>
         </is>
       </c>
     </row>
